--- a/Documentação/Planilhas/Layouts/20160211/LN_Dominio.xlsx
+++ b/Documentação/Planilhas/Layouts/20160211/LN_Dominio.xlsx
@@ -4,38 +4,64 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="16" activeTab="20"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
-    <sheet name="stg_dom_banco" sheetId="187" r:id="rId1"/>
-    <sheet name="stg_dom_canal_venda" sheetId="188" r:id="rId2"/>
-    <sheet name="stg_dom_cap_bco_parceiro" sheetId="189" r:id="rId3"/>
-    <sheet name="stg_dom_cap_preparado_pagto" sheetId="190" r:id="rId4"/>
-    <sheet name="stg_dom_cap_tipo_pagto" sheetId="191" r:id="rId5"/>
-    <sheet name="stg_dom_car_comando" sheetId="192" r:id="rId6"/>
-    <sheet name="stg_dom_centro_custo" sheetId="193" r:id="rId7"/>
-    <sheet name="stg_dom_companhia" sheetId="194" r:id="rId8"/>
-    <sheet name="stg_dom_condicao_pagamento" sheetId="195" r:id="rId9"/>
-    <sheet name="stg_dom_conta_contabil" sheetId="196" r:id="rId10"/>
-    <sheet name="stg_dom_deposito" sheetId="197" r:id="rId11"/>
-    <sheet name="stg_dom_des_filial" sheetId="198" r:id="rId12"/>
-    <sheet name="stg_dom_projeto" sheetId="199" r:id="rId13"/>
-    <sheet name="stg_dom_des_unidade_negocio" sheetId="200" r:id="rId14"/>
-    <sheet name="stg_dom_dev_sistema_fonte" sheetId="201" r:id="rId15"/>
-    <sheet name="stg_dom_est_modalidade" sheetId="202" r:id="rId16"/>
-    <sheet name="stg_dom_est_tipo_bloqueio" sheetId="203" r:id="rId17"/>
-    <sheet name="stg_dom_fat_moeda" sheetId="204" r:id="rId18"/>
-    <sheet name="stg_dom_movimento_transacao" sheetId="206" r:id="rId19"/>
-    <sheet name="stg_dom_natureza_lancamento" sheetId="207" r:id="rId20"/>
-    <sheet name="Resumo" sheetId="93" r:id="rId21"/>
+    <sheet name="Resumo" sheetId="93" r:id="rId1"/>
+    <sheet name="stg_dom_banco" sheetId="187" r:id="rId2"/>
+    <sheet name="stg_dom_canal_venda" sheetId="188" r:id="rId3"/>
+    <sheet name="stg_dom_cap_bco_parceiro" sheetId="189" r:id="rId4"/>
+    <sheet name="stg_dom_cap_preparado_pagto" sheetId="190" r:id="rId5"/>
+    <sheet name="stg_dom_cap_tipo_pagto" sheetId="191" r:id="rId6"/>
+    <sheet name="stg_dom_car_comando" sheetId="192" r:id="rId7"/>
+    <sheet name="stg_dom_centro_custo" sheetId="193" r:id="rId8"/>
+    <sheet name="stg_dom_companhia" sheetId="194" r:id="rId9"/>
+    <sheet name="stg_dom_condicao_pagamento" sheetId="195" r:id="rId10"/>
+    <sheet name="stg_dom_conta_contabil" sheetId="196" r:id="rId11"/>
+    <sheet name="stg_dom_deposito" sheetId="197" r:id="rId12"/>
+    <sheet name="stg_dom_des_filial" sheetId="198" r:id="rId13"/>
+    <sheet name="stg_dom_projeto" sheetId="199" r:id="rId14"/>
+    <sheet name="stg_dom_des_unidade_negocio" sheetId="200" r:id="rId15"/>
+    <sheet name="stg_dom_dev_sistema_fonte" sheetId="201" r:id="rId16"/>
+    <sheet name="stg_dom_est_modalidade" sheetId="202" r:id="rId17"/>
+    <sheet name="stg_dom_est_tipo_bloqueio" sheetId="203" r:id="rId18"/>
+    <sheet name="stg_dom_fat_moeda" sheetId="204" r:id="rId19"/>
+    <sheet name="stg_dom_movimento_transacao" sheetId="206" r:id="rId20"/>
+    <sheet name="stg_dom_natureza_lancamento" sheetId="207" r:id="rId21"/>
     <sheet name="stg_dom_natureza_operacao" sheetId="208" r:id="rId22"/>
+    <sheet name="stg_dom_natureza_tipo_operacao" sheetId="209" r:id="rId23"/>
+    <sheet name="stg_dom_nfe_status_rascunho" sheetId="210" r:id="rId24"/>
+    <sheet name="stg_dom_nfr_motivo_devolucao" sheetId="211" r:id="rId25"/>
+    <sheet name="stg_dom_orc_tipo" sheetId="212" r:id="rId26"/>
+    <sheet name="stg_dom_pec_status_item" sheetId="214" r:id="rId27"/>
+    <sheet name="stg_dom_pec_tipo_cadastro" sheetId="215" r:id="rId28"/>
+    <sheet name="stg_dom_pec_tipo_frete" sheetId="216" r:id="rId29"/>
+    <sheet name="stg_dom_pec_tipo_ordem_compra" sheetId="217" r:id="rId30"/>
+    <sheet name="stg_dom_pev_origem" sheetId="218" r:id="rId31"/>
+    <sheet name="stg_dom_pev_status_pagamento" sheetId="219" r:id="rId32"/>
+    <sheet name="stg_dom_pev_tipo_pedido" sheetId="220" r:id="rId33"/>
+    <sheet name="stg_dom_status" sheetId="221" r:id="rId34"/>
+    <sheet name="stg_dom_tipo_documento" sheetId="223" r:id="rId35"/>
+    <sheet name="stg_dom_tipo_documento_fiscal" sheetId="224" r:id="rId36"/>
+    <sheet name="stg_dom_tipo_operacao" sheetId="225" r:id="rId37"/>
+    <sheet name="stg_dom_tipo_transacao" sheetId="226" r:id="rId38"/>
+    <sheet name="stg_dom_des_tipo_transacao" sheetId="227" r:id="rId39"/>
+    <sheet name="stg_dom_tipo_transporte" sheetId="228" r:id="rId40"/>
+    <sheet name="stg_dom_transacao" sheetId="229" r:id="rId41"/>
+    <sheet name="stg_dom_trk_cod_sistema_fonte" sheetId="230" r:id="rId42"/>
+    <sheet name="stg_dom_trp_mega_rota" sheetId="231" r:id="rId43"/>
+    <sheet name="stg_dom_trp_transportadora" sheetId="232" r:id="rId44"/>
+    <sheet name="stg_dom_wms_onda" sheetId="233" r:id="rId45"/>
+    <sheet name="stg_dom_wms_planta" sheetId="234" r:id="rId46"/>
+    <sheet name="stg_dom_wms_tracking_pedido" sheetId="235" r:id="rId47"/>
+    <sheet name="stg_dom_wms_trp_ocorrencia" sheetId="236" r:id="rId48"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="405">
   <si>
     <t>Campo</t>
   </si>
@@ -633,6 +659,624 @@
   </si>
   <si>
     <t>VW_DOM_NATUREZA_OPERACAO</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Nat Tp Operacao</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_natureza_tipo_operacao]</t>
+  </si>
+  <si>
+    <t>CD_TIPO_OPERACAO</t>
+  </si>
+  <si>
+    <t>DS_TIPO_OPERACAO</t>
+  </si>
+  <si>
+    <t>Identifica a Sequencia da Natureza da Operação através do seu código. Ex: 102, 113, 152, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Operação através do seu código. Ex: 1, 5, 4, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Operação através da sua descrição. Ex: Compra com pedido, Remessa, Transferência mercadoria, etc</t>
+  </si>
+  <si>
+    <t>VW_DOM_Natureza_Tipo_Operacao</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) NFE - Status Rascunho</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_nfe_status_rascunho]</t>
+  </si>
+  <si>
+    <t>CD_SITUACAO_RASCUNHO</t>
+  </si>
+  <si>
+    <t>DS_SITUACAO_RASCUNHO</t>
+  </si>
+  <si>
+    <t>Identifica a Situação do Rascunho da NFE através do seu código. Ex: 1, 2, 3, 4, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Situação do Rascunho da NFE através da sua descrição. Ex: Não aplicável, Aberto, NF com erro, A agendar, etc</t>
+  </si>
+  <si>
+    <t>VW_DOM_NFE_Status_Rascunho</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) NFR - Mot Devolução</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_nfr_motivo_devolucao]</t>
+  </si>
+  <si>
+    <t>VW_DOM_NFR_Motivo_Devolucao</t>
+  </si>
+  <si>
+    <t>CD_MOTIVO_DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>DS_MOTIVO_DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>Identifica o Motivo da Devolução através do seu código. Ex: 003, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Motivo da Devolução através da sua descrição. Ex: Devolução de Mercadoria, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) ORC - Tipo</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_orc_tipo]</t>
+  </si>
+  <si>
+    <t>CD_TIPO_ORCAMENTO</t>
+  </si>
+  <si>
+    <t>DS_TIPO_ORCAMENTO</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Orçamento através do seu código. Ex: 2, 3, 4, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Orçamento através da sua descrição. Ex: Meta PontoFrio.com, Meta Extra.com, Orders Mês PF, etc</t>
+  </si>
+  <si>
+    <t>VW_DOM_ORC_Tipo</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEC - Status Item</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_pec_status_item]</t>
+  </si>
+  <si>
+    <t>VW_DOM_PEC_Status_Item</t>
+  </si>
+  <si>
+    <t>CD_STATUS_ITEM</t>
+  </si>
+  <si>
+    <t>NM_STATUS_ITEM</t>
+  </si>
+  <si>
+    <t>DS_STATUS_ITEM</t>
+  </si>
+  <si>
+    <t>Identifica o Status do Item através do seu código. Ex: 1, 2, 5, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Status do Item através da sua sigla. Ex: A, L, C, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Status do Item através da sua descrição. Ex: Aberto, Liquidado, Cancelado, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEC - Tipo Cadastro</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_pec_tipo_cadastro]</t>
+  </si>
+  <si>
+    <t>CD_TIPO_CADASTRO</t>
+  </si>
+  <si>
+    <t>DS_TIPO_CADASTRO</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Cadastro através do seu código. Ex: 1, 2, 5, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Cadastro através da sua descrição. Ex: EP, Manutenção, Solicitação de cotação etc</t>
+  </si>
+  <si>
+    <t>VW_DOM_PEC_Tipo_Cadastro</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEC - Tipo Frete</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_pec_tipo_frete]</t>
+  </si>
+  <si>
+    <t>CD_TIPO_FRETE</t>
+  </si>
+  <si>
+    <t>DS_TIPO_FRETE</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Frete através do seu código. Ex: 001, 002, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Frete através da sua descrição. Ex: CIF, FOB, etc</t>
+  </si>
+  <si>
+    <t>VW_DOM_PEC_Tipo_Frete</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEC - Tp Ordem Compra</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_pec_tipo_ordem_compra]</t>
+  </si>
+  <si>
+    <t>VW_DOM_PEC_Tipo_Ordem_Compra</t>
+  </si>
+  <si>
+    <t>CD_TIPO_ORDEM</t>
+  </si>
+  <si>
+    <t>DS_TIPO_ORDEM</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Ordem através do seu código. Ex: 001, 002, 003, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Ordem através da sua descrição. Ex: PEDIDO MANUAL, PEDIDO AUTOMATICO, RESSUPRIMENTO, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEV - Origem</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_pev_origem]</t>
+  </si>
+  <si>
+    <t>VW_DOM_PEV_Origem</t>
+  </si>
+  <si>
+    <t>CD_ORIGEM_PEDIDO</t>
+  </si>
+  <si>
+    <t>DS_ORIGEM_PEDIDO</t>
+  </si>
+  <si>
+    <t>Identifica a Origem do Pedido através do seu código. Ex: 1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Origem do Pedido através da sua descrição. Ex: Site, Troca, Insucesso de entrega, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEV - Status Pagto</t>
+  </si>
+  <si>
+    <t>VW_DOM_PEV_Status_Pagamento</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_pev_status_pagamento]</t>
+  </si>
+  <si>
+    <t>CD_STATUS_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DS_STATUS_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>Identifica o Status do Pagamento através do seu código. Ex: 1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Status do Pagamento através da sua descrição. Ex: Aberto, Processado, Erros, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEV -Tp Pedido</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_pev_tipo_pedido]</t>
+  </si>
+  <si>
+    <t>CD_TIPO_PEDIDO</t>
+  </si>
+  <si>
+    <t>DS_TIPO_PEDIDO</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Pedido através do seu código. Ex: B, C, L, N, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Pedido através da sua descrição. Ex: VENDA A ORDEM B2B, VENDA COMPLEMENTAR, LOCKER, NORMAL, etc</t>
+  </si>
+  <si>
+    <t>VW_DOM_PEV_Tipo_Pedido</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Status</t>
+  </si>
+  <si>
+    <t>VW_DOM_Status</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_status]</t>
+  </si>
+  <si>
+    <t>CD_STATUS</t>
+  </si>
+  <si>
+    <t>DS_STATUS</t>
+  </si>
+  <si>
+    <t>Identifica o Status do Ponto de Controle através do seu código. Ex: AC1, AEM, ARE, COL etc</t>
+  </si>
+  <si>
+    <t>Identifica o Status do Ponto de Controle através da sua descrição. Ex: Coletado, Aguardando Retira, Avaria na embalagem, AUSENTE na COLETA - 1ª  tentativa, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Tipo Documento</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_tipo_documento]</t>
+  </si>
+  <si>
+    <t>VW_DOM_Tipo_Documento</t>
+  </si>
+  <si>
+    <t>CD_TIPO_DOCUMENTO</t>
+  </si>
+  <si>
+    <t>DS_TIPO_DOCUMENTO</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Documento através do seu código. Ex: 1, 2, 3, 4, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Documento através da sua descrição. Ex: Fatura de venda, Recebimento normal, Fatura de compra, Nota de crédito, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Tipo Docto Fiscal</t>
+  </si>
+  <si>
+    <t>VW_DOM_Tipo_Documento_Fiscal</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_tipo_documento_fiscal]</t>
+  </si>
+  <si>
+    <t>CD_TIPO_DOCUMENTO_FISCAL</t>
+  </si>
+  <si>
+    <t>DS_TIPO_DOCUMENTO_FISCAL</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Documento Fiscal através do seu código. Ex: E00001, E00002, E00003, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Documento Fiscal através da sua descrição. Ex: COMPRA PARA REVENDA, COMPRA OP. TRIANGULAR SEM REG, REMESSA OP. TRIANGULAR SEM REG, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Tipo Operacao</t>
+  </si>
+  <si>
+    <t>VW_DOM_Tipo_Operacao</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_tipo_operacao]</t>
+  </si>
+  <si>
+    <t>CD_MODULO</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Operação através do seu código. Ex: 1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Operação através da sua descrição. Ex: Compra com pedido, Venda com pedido, Compra sem pedido, Venda sem pedido, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Módulo de Origem da Operação através do seu código. Ex: NFV, NFR</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Tipo Transacao</t>
+  </si>
+  <si>
+    <t>VW_DOM_Tipo_Transacao</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_tipo_transacao]</t>
+  </si>
+  <si>
+    <t>CD_TIPO_TRANSACAO</t>
+  </si>
+  <si>
+    <t>DS_TIPO_TRANSACAO</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Tp Transação Razão</t>
+  </si>
+  <si>
+    <t>VW_DOM_TIPO_TRANSACAO_RAZAO</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_des_tipo_transacao]</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Transação Contábeis através do seu código. Ex: 1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Transação Contábeis através da sua descrição. Ex: Lançamentos Contábeis, Lançamentos recorrentes/invers, Faturas de venda, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Transação de Despesa através do seu código. Ex: SRS, SRT, SSO, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Transação de Despesa através da sua descrição. Ex: FAT.Vendas - RS, FAT.Vendas - RT, FAT.Vendas - Saldão, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Tipo Transporte</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_tipo_transporte]</t>
+  </si>
+  <si>
+    <t>CD_TIPO_TRANSPORTE</t>
+  </si>
+  <si>
+    <t>DS_TIPO_TRANSPORTE</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Transporte através do seu código. Ex: 1, 2, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Tranporte através da sua descrição. Ex: Leve, Pesado, etc</t>
+  </si>
+  <si>
+    <t>VW_DOM_Tipo_Transporte</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Transação</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_transacao]</t>
+  </si>
+  <si>
+    <t>VW_DOM_Transacao</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO</t>
+  </si>
+  <si>
+    <t>DS_TRANSACAO</t>
+  </si>
+  <si>
+    <t>Identifica o Módulo de Origem da Transação através do seu código. Ex: CAR, CAP, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Transação através do seu código. Ex: 1, 3, 6, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transação através do seu código. Ex: RKL, RE4, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transação através da sua descrição. Ex: Faturamento  Marketplace, Faturamento  B2B, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) TRK - Cod Sist Fonte</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_trk_codigo_sistema_fonte]</t>
+  </si>
+  <si>
+    <t>VW_DOM_TRK_Codigo_Sistema_Fonte</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) TRP - Mega Rota</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_trp_mega_rota]</t>
+  </si>
+  <si>
+    <t>ID_MEGA_ROTA</t>
+  </si>
+  <si>
+    <t>DS_MEGA_ROTA</t>
+  </si>
+  <si>
+    <t>Identifica a Mega Rota através do seu código. Ex: BA, BR, RJ, SP, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Mega Rota através da sua descrição. Ex: Bahia, Brasil, RIO DE JANEIRO, São Paulo, etc</t>
+  </si>
+  <si>
+    <t>VW_DOM_TRP_MegaRota</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) TRP - Transportadora</t>
+  </si>
+  <si>
+    <t>VW_DOM_TRP_Transportadora</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_trp_transportadora]</t>
+  </si>
+  <si>
+    <t>ID_TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>DS_TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>DS_APELIDO</t>
+  </si>
+  <si>
+    <t>ID_GRUPO_TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>Identifica a Transportadora através do seu CNPJ completo sem qualquer separador. Ex: 634453000250, 634453000846, 1166372000155, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transportadora através da sua razão social completa. Ex: TSV Transp. Rodoviarios LTDA, TSV TRANSPORTE RAPIDOS LTDA, Trans  Entrega Expressa, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transportadora através do seu apelido. Ex: TSV TRANSP. RODO, TRANS  ENTREGA E, TRANS MARCÃO, etc</t>
+  </si>
+  <si>
+    <t>Identifica o CNPJ completo da Transportadora Principal do Grupo sem qualquer separador. Ex: 634453000250, 634453000846, 1166372000155, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) WMS - Onda</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_wms_onda]</t>
+  </si>
+  <si>
+    <t>VW_DOM_WMS_Onda</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) WMS - Planta</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_wms_planta]</t>
+  </si>
+  <si>
+    <t>VW_DOM_WMS_PLANTA</t>
+  </si>
+  <si>
+    <t>CD_PLANTA</t>
+  </si>
+  <si>
+    <t>CD_TERCEIRO</t>
+  </si>
+  <si>
+    <t>NM_PLANTA</t>
+  </si>
+  <si>
+    <t>CD_ARMAZEM</t>
+  </si>
+  <si>
+    <t>NR_CNPJ_FILIAL</t>
+  </si>
+  <si>
+    <t>CD_ONDA</t>
+  </si>
+  <si>
+    <t>CD_PROGRAMA</t>
+  </si>
+  <si>
+    <t>DT_CADASTRO</t>
+  </si>
+  <si>
+    <t>QT_PEDIDOS</t>
+  </si>
+  <si>
+    <t>QT_ITENS</t>
+  </si>
+  <si>
+    <t>CD_SITUACAO_ONDA</t>
+  </si>
+  <si>
+    <t>Identifica a Onda através do seu código. Ex: 0000000006, 0000000007, 0000000008, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Armazém através do seu código. Ex: WMWHSE1, WMWHSE2, WMWHSE3, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifica o Programa através do seu código [atualmente está tudo em branco]. Ex: </t>
+  </si>
+  <si>
+    <t>Identifica a data do cadastro no formato AAAA-MM-DD HH:MM:SSS. Ex: 2013-10-31 15:40:07.000, etc</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos existentes no período</t>
+  </si>
+  <si>
+    <t>Quantidade de Itens existentes no pedido no período</t>
+  </si>
+  <si>
+    <t>Identifica a situação da onda através do seu código. Ex: 3, 5, 9, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data da última atualização no formato AAAA-MM-DD HH:MM:SSS. Ex: 2015-08-31 15:21:04.000, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Planta através do seu apelido. Ex: ALDEIA, ATACADO - RJ, Atacado 7, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Planta através do seu nome. Ex: ALDEIA, ATACADO - RJ, Atacado 7, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através do seu código. Ex: 1, 2, 3, 12, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Terceiro através do seu CNPJ completo, sem qualquer separador [atualmente está trazendo o CNPJ da Filial]. Ex: 07170938001413, 07170938001502, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através do seu CNPJ completo, sem qualquer separador. Ex: 07170938001413, 07170938001502, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Companhia através do seu código. Ex: 1, 13, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Companhia através da sua descrição. Ex: NOVA PONTOCOM, Nike, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) WMS - Tracking Pedido</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_wms_tracking_pedido]</t>
+  </si>
+  <si>
+    <t>VW_DOM_WMS_Tracking_Pedido</t>
+  </si>
+  <si>
+    <t>NR_PEDIDO</t>
+  </si>
+  <si>
+    <t>CD_EVENTO_TERCEIRO</t>
+  </si>
+  <si>
+    <t>DT_REGISTRO</t>
+  </si>
+  <si>
+    <t>Identifica o Pedido através do seu código. Ex: 0000000006, 0000000007, 0000000008, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Evento de Terceiros através do seu código. Ex: WMS, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data do registro no formato AAAA-MM-DD HH:MM:SSS. Ex: 2013-10-31 15:40:07.000, etc</t>
+  </si>
+  <si>
+    <t>Identifica a situação do pedido através do seu código. Ex: 02, 12, 09, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) WMS - TRP Ocorrência</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_dom_wms_trp_ocorrencia]</t>
+  </si>
+  <si>
+    <t>ID_OCORRENCIA</t>
+  </si>
+  <si>
+    <t>DS_OCORRENCIA</t>
+  </si>
+  <si>
+    <t>VW_DOM_WMS_TRP_Ocorrencia</t>
+  </si>
+  <si>
+    <t>Identifica a Ocorrência do Transporte do seu código. Ex: 00, 02, 06, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Ocorrência do Transporte através da sua descrição. Ex: Pedido em branco, Criado extern., Não alocou, etc</t>
   </si>
 </sst>
 </file>
@@ -1550,6 +2194,366 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1595,7 +2599,817 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing32.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing33.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing40.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing41.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing42.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing43.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing44.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing45.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing46.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing47.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2151,11 +3965,823 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B2:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="78.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15">
+      <c r="B3" s="12" t="str">
+        <f>stg_dom_banco!B9</f>
+        <v>[dbo].[stg_dom_banco]</v>
+      </c>
+      <c r="C3" s="14" t="str">
+        <f>stg_dom_banco!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D3" s="17" t="str">
+        <f>stg_dom_banco!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Banco</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="2:5" ht="15">
+      <c r="B4" s="18" t="str">
+        <f>stg_dom_canal_venda!B9</f>
+        <v>[dbo].[stg_dom_canal_venda]</v>
+      </c>
+      <c r="C4" s="14" t="str">
+        <f>stg_dom_canal_venda!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <f>stg_dom_canal_venda!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Canal Venda</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="2:5" ht="15">
+      <c r="B5" s="18" t="str">
+        <f>stg_dom_cap_bco_parceiro!B9</f>
+        <v>[dbo].[stg_dom_cap_bco_parceiro]</v>
+      </c>
+      <c r="C5" s="14" t="str">
+        <f>stg_dom_cap_bco_parceiro!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D5" s="17" t="str">
+        <f>stg_dom_cap_bco_parceiro!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) CAP - Bco Parceiro</v>
+      </c>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="2:5" ht="15">
+      <c r="B6" s="18" t="str">
+        <f>stg_dom_cap_preparado_pagto!B9</f>
+        <v>[dbo].[stg_dom_cap_preparado_pagto]</v>
+      </c>
+      <c r="C6" s="14" t="str">
+        <f>stg_dom_cap_preparado_pagto!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D6" s="17" t="str">
+        <f>stg_dom_cap_preparado_pagto!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) CAP - Prep Pgto</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="2:5" ht="15">
+      <c r="B7" s="18" t="str">
+        <f>stg_dom_cap_tipo_pagto!B9</f>
+        <v>[dbo].[stg_dom_cap_tipo_pagto]</v>
+      </c>
+      <c r="C7" s="14" t="str">
+        <f>stg_dom_cap_tipo_pagto!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D7" s="17" t="str">
+        <f>stg_dom_cap_tipo_pagto!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) CAP - Tipo Pgto</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="2:5" ht="15">
+      <c r="B8" s="18" t="str">
+        <f>stg_dom_car_comando!B9</f>
+        <v>[dbo].[stg_dom_car_comando]</v>
+      </c>
+      <c r="C8" s="14" t="str">
+        <f>stg_dom_car_comando!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D8" s="17" t="str">
+        <f>stg_dom_car_comando!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) CAR - Comando</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="2:5" ht="15">
+      <c r="B9" s="18" t="str">
+        <f>stg_dom_centro_custo!B9</f>
+        <v>[dbo].[stg_dom_centro_custo]</v>
+      </c>
+      <c r="C9" s="14" t="str">
+        <f>stg_dom_centro_custo!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D9" s="17" t="str">
+        <f>stg_dom_centro_custo!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Centro de Custo</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="2:5" ht="15">
+      <c r="B10" s="18" t="str">
+        <f>stg_dom_companhia!B9</f>
+        <v>[dbo].[stg_dom_companhia]</v>
+      </c>
+      <c r="C10" s="14" t="str">
+        <f>stg_dom_companhia!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D10" s="17" t="str">
+        <f>stg_dom_companhia!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Companhia</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="2:5" ht="15">
+      <c r="B11" s="18" t="str">
+        <f>stg_dom_condicao_pagamento!B9</f>
+        <v>[dbo].[stg_dom_condicao_pagamento]</v>
+      </c>
+      <c r="C11" s="14" t="str">
+        <f>stg_dom_condicao_pagamento!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D11" s="17" t="str">
+        <f>stg_dom_condicao_pagamento!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Condicao Pagto</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="2:5" ht="15">
+      <c r="B12" s="18" t="str">
+        <f>stg_dom_conta_contabil!B9</f>
+        <v>[dbo].[stg_dom_conta_contabil]</v>
+      </c>
+      <c r="C12" s="14" t="str">
+        <f>stg_dom_conta_contabil!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D12" s="17" t="str">
+        <f>stg_dom_conta_contabil!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Conta Contabil</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="2:5" ht="15">
+      <c r="B13" s="18" t="str">
+        <f>stg_dom_deposito!B9</f>
+        <v>[dbo].[stg_dom_deposito]</v>
+      </c>
+      <c r="C13" s="14" t="str">
+        <f>stg_dom_deposito!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D13" s="17" t="str">
+        <f>stg_dom_deposito!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Deposito</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="2:5" ht="15">
+      <c r="B14" s="18" t="str">
+        <f>stg_dom_des_filial!B9</f>
+        <v>[dbo].[stg_dom_des_filial]</v>
+      </c>
+      <c r="C14" s="14" t="str">
+        <f>stg_dom_des_filial!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D14" s="17" t="str">
+        <f>stg_dom_des_filial!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) DES - Filial LN</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="2:5" ht="15">
+      <c r="B15" s="18" t="str">
+        <f>stg_dom_projeto!B9</f>
+        <v>[dbo].[stg_dom_projeto]</v>
+      </c>
+      <c r="C15" s="14" t="str">
+        <f>stg_dom_projeto!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D15" s="17" t="str">
+        <f>stg_dom_projeto!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) DES - Projeto</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="2:5" ht="15">
+      <c r="B16" s="18" t="str">
+        <f>stg_dom_des_unidade_negocio!B9</f>
+        <v>[dbo].[stg_dom_des_unidade_negocio]</v>
+      </c>
+      <c r="C16" s="14" t="str">
+        <f>stg_dom_des_unidade_negocio!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D16" s="17" t="str">
+        <f>stg_dom_des_unidade_negocio!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) DES - Unid Neg LN</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="2:5" ht="15">
+      <c r="B17" s="18" t="str">
+        <f>stg_dom_dev_sistema_fonte!B9</f>
+        <v>[dbo].[stg_dom_dev_sistema_fonte]</v>
+      </c>
+      <c r="C17" s="14" t="str">
+        <f>stg_dom_dev_sistema_fonte!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D17" s="17" t="str">
+        <f>stg_dom_dev_sistema_fonte!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) DEV - Sist Fonte</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="2:5" ht="15">
+      <c r="B18" s="18" t="str">
+        <f>stg_dom_est_modalidade!B9</f>
+        <v>[dbo].[stg_dom_est_modalidade]</v>
+      </c>
+      <c r="C18" s="14" t="str">
+        <f>stg_dom_est_modalidade!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D18" s="17" t="str">
+        <f>stg_dom_est_modalidade!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) EST - Modalidade</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="2:5" ht="15">
+      <c r="B19" s="18" t="str">
+        <f>stg_dom_est_tipo_bloqueio!B9</f>
+        <v>[dbo].[stg_dom_est_tipo_bloqueio]</v>
+      </c>
+      <c r="C19" s="14" t="str">
+        <f>stg_dom_est_tipo_bloqueio!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D19" s="17" t="str">
+        <f>stg_dom_est_tipo_bloqueio!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) EST - Tipo Bloqueio</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="2:5" ht="15">
+      <c r="B20" s="18" t="str">
+        <f>stg_dom_fat_moeda!B9</f>
+        <v>[dbo].[stg_dom_fat_moeda]</v>
+      </c>
+      <c r="C20" s="14" t="str">
+        <f>stg_dom_fat_moeda!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D20" s="17" t="str">
+        <f>stg_dom_fat_moeda!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) FAT - Moeda</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="2:5" ht="15">
+      <c r="B21" s="18" t="str">
+        <f>stg_dom_movimento_transacao!B9</f>
+        <v>[dbo].[stg_dom_movimento_transacao]</v>
+      </c>
+      <c r="C21" s="14" t="str">
+        <f>stg_dom_movimento_transacao!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D21" s="17" t="str">
+        <f>stg_dom_movimento_transacao!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Movto Transacao</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="2:5" ht="15">
+      <c r="B22" s="18" t="str">
+        <f>stg_dom_natureza_lancamento!B9</f>
+        <v>[dbo].[stg_dom_natureza_lancamento]</v>
+      </c>
+      <c r="C22" s="14" t="str">
+        <f>stg_dom_natureza_lancamento!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D22" s="17" t="str">
+        <f>stg_dom_natureza_lancamento!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Natureza Lançto</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="2:5" ht="15">
+      <c r="B23" s="18" t="str">
+        <f>stg_dom_natureza_operacao!B9</f>
+        <v>[dbo].[stg_dom_natureza_operacao]</v>
+      </c>
+      <c r="C23" s="14" t="str">
+        <f>stg_dom_natureza_operacao!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D23" s="17" t="str">
+        <f>stg_dom_natureza_operacao!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Nat Operação</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="2:5" ht="15">
+      <c r="B24" s="18" t="str">
+        <f>stg_dom_natureza_tipo_operacao!B9</f>
+        <v>[dbo].[stg_dom_natureza_tipo_operacao]</v>
+      </c>
+      <c r="C24" s="14" t="str">
+        <f>stg_dom_natureza_tipo_operacao!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D24" s="17" t="str">
+        <f>stg_dom_natureza_tipo_operacao!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Nat Tp Operacao</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="2:5" ht="15">
+      <c r="B25" s="18" t="str">
+        <f>stg_dom_nfe_status_rascunho!B9</f>
+        <v>[dbo].[stg_dom_nfe_status_rascunho]</v>
+      </c>
+      <c r="C25" s="14" t="str">
+        <f>stg_dom_nfe_status_rascunho!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D25" s="17" t="str">
+        <f>stg_dom_nfe_status_rascunho!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) NFE - Status Rascunho</v>
+      </c>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="2:5" ht="15">
+      <c r="B26" s="18" t="str">
+        <f>stg_dom_nfr_motivo_devolucao!B9</f>
+        <v>[dbo].[stg_dom_nfr_motivo_devolucao]</v>
+      </c>
+      <c r="C26" s="14" t="str">
+        <f>stg_dom_nfr_motivo_devolucao!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D26" s="17" t="str">
+        <f>stg_dom_nfr_motivo_devolucao!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) NFR - Mot Devolução</v>
+      </c>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="2:5" ht="15">
+      <c r="B27" s="18" t="str">
+        <f>stg_dom_orc_tipo!B9</f>
+        <v>[dbo].[stg_dom_orc_tipo]</v>
+      </c>
+      <c r="C27" s="14" t="str">
+        <f>stg_dom_orc_tipo!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D27" s="17" t="str">
+        <f>stg_dom_orc_tipo!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) ORC - Tipo</v>
+      </c>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="2:5" ht="15">
+      <c r="B28" s="18" t="str">
+        <f>stg_dom_pec_status_item!B9</f>
+        <v>[dbo].[stg_dom_pec_status_item]</v>
+      </c>
+      <c r="C28" s="14" t="str">
+        <f>stg_dom_pec_status_item!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D28" s="17" t="str">
+        <f>stg_dom_pec_status_item!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEC - Status Item</v>
+      </c>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="2:5" ht="15">
+      <c r="B29" s="18" t="str">
+        <f>stg_dom_pec_tipo_cadastro!B9</f>
+        <v>[dbo].[stg_dom_pec_tipo_cadastro]</v>
+      </c>
+      <c r="C29" s="14" t="str">
+        <f>stg_dom_pec_tipo_cadastro!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D29" s="17" t="str">
+        <f>stg_dom_pec_tipo_cadastro!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEC - Tipo Cadastro</v>
+      </c>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="2:5" ht="15">
+      <c r="B30" s="18" t="str">
+        <f>stg_dom_pec_tipo_frete!B9</f>
+        <v>[dbo].[stg_dom_pec_tipo_frete]</v>
+      </c>
+      <c r="C30" s="14" t="str">
+        <f>stg_dom_pec_tipo_frete!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D30" s="17" t="str">
+        <f>stg_dom_pec_tipo_frete!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEC - Tipo Frete</v>
+      </c>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="2:5" ht="15">
+      <c r="B31" s="18" t="str">
+        <f>stg_dom_pec_tipo_ordem_compra!B9</f>
+        <v>[dbo].[stg_dom_pec_tipo_ordem_compra]</v>
+      </c>
+      <c r="C31" s="14" t="str">
+        <f>stg_dom_pec_tipo_ordem_compra!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D31" s="17" t="str">
+        <f>stg_dom_pec_tipo_ordem_compra!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEC - Tp Ordem Compra</v>
+      </c>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="2:5" ht="15">
+      <c r="B32" s="18" t="str">
+        <f>stg_dom_pev_origem!B9</f>
+        <v>[dbo].[stg_dom_pev_origem]</v>
+      </c>
+      <c r="C32" s="14" t="str">
+        <f>stg_dom_pev_origem!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D32" s="17" t="str">
+        <f>stg_dom_pev_origem!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEV - Origem</v>
+      </c>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="2:5" ht="15">
+      <c r="B33" s="18" t="str">
+        <f>stg_dom_pev_status_pagamento!B9</f>
+        <v>[dbo].[stg_dom_pev_status_pagamento]</v>
+      </c>
+      <c r="C33" s="14" t="str">
+        <f>stg_dom_pev_status_pagamento!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D33" s="17" t="str">
+        <f>stg_dom_pev_status_pagamento!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEV - Status Pagto</v>
+      </c>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="2:5" ht="15">
+      <c r="B34" s="18" t="str">
+        <f>stg_dom_pev_tipo_pedido!B9</f>
+        <v>[dbo].[stg_dom_pev_tipo_pedido]</v>
+      </c>
+      <c r="C34" s="14" t="str">
+        <f>stg_dom_pev_tipo_pedido!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D34" s="17" t="str">
+        <f>stg_dom_pev_tipo_pedido!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) PEV -Tp Pedido</v>
+      </c>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="2:5" ht="15">
+      <c r="B35" s="18" t="str">
+        <f>stg_dom_status!B9</f>
+        <v>[dbo].[stg_dom_status]</v>
+      </c>
+      <c r="C35" s="14" t="str">
+        <f>stg_dom_status!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D35" s="17" t="str">
+        <f>stg_dom_status!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Status</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="2:5" ht="15">
+      <c r="B36" s="18" t="str">
+        <f>stg_dom_tipo_documento!B9</f>
+        <v>[dbo].[stg_dom_tipo_documento]</v>
+      </c>
+      <c r="C36" s="14" t="str">
+        <f>stg_dom_tipo_documento!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D36" s="17" t="str">
+        <f>stg_dom_tipo_documento!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Tipo Documento</v>
+      </c>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="2:5" ht="15">
+      <c r="B37" s="18" t="str">
+        <f>stg_dom_tipo_documento_fiscal!B9</f>
+        <v>[dbo].[stg_dom_tipo_documento_fiscal]</v>
+      </c>
+      <c r="C37" s="14" t="str">
+        <f>stg_dom_tipo_documento_fiscal!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D37" s="17" t="str">
+        <f>stg_dom_tipo_documento_fiscal!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Tipo Docto Fiscal</v>
+      </c>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="2:5" ht="15">
+      <c r="B38" s="18" t="str">
+        <f>stg_dom_tipo_operacao!B9</f>
+        <v>[dbo].[stg_dom_tipo_operacao]</v>
+      </c>
+      <c r="C38" s="14" t="str">
+        <f>stg_dom_tipo_operacao!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D38" s="17" t="str">
+        <f>stg_dom_tipo_operacao!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Tipo Operacao</v>
+      </c>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="2:5" ht="15">
+      <c r="B39" s="18" t="str">
+        <f>stg_dom_tipo_transacao!B9</f>
+        <v>[dbo].[stg_dom_tipo_transacao]</v>
+      </c>
+      <c r="C39" s="14" t="str">
+        <f>stg_dom_tipo_transacao!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D39" s="17" t="str">
+        <f>stg_dom_tipo_transacao!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Tipo Transacao</v>
+      </c>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="2:5" ht="15">
+      <c r="B40" s="18" t="str">
+        <f>stg_dom_des_tipo_transacao!B9</f>
+        <v>[dbo].[stg_dom_des_tipo_transacao]</v>
+      </c>
+      <c r="C40" s="14" t="str">
+        <f>stg_dom_des_tipo_transacao!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D40" s="17" t="str">
+        <f>stg_dom_des_tipo_transacao!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Tp Transação Razão</v>
+      </c>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="2:5" ht="15">
+      <c r="B41" s="18" t="str">
+        <f>stg_dom_tipo_transporte!B9</f>
+        <v>[dbo].[stg_dom_tipo_transporte]</v>
+      </c>
+      <c r="C41" s="14" t="str">
+        <f>stg_dom_tipo_transporte!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D41" s="17" t="str">
+        <f>stg_dom_tipo_transporte!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Tipo Transporte</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="2:5" ht="15">
+      <c r="B42" s="18" t="str">
+        <f>stg_dom_transacao!B9</f>
+        <v>[dbo].[stg_dom_transacao]</v>
+      </c>
+      <c r="C42" s="14" t="str">
+        <f>stg_dom_transacao!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D42" s="17" t="str">
+        <f>stg_dom_transacao!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Transação</v>
+      </c>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="2:5" ht="15">
+      <c r="B43" s="18" t="str">
+        <f>stg_dom_trk_cod_sistema_fonte!B9</f>
+        <v>[dbo].[stg_dom_trk_codigo_sistema_fonte]</v>
+      </c>
+      <c r="C43" s="14" t="str">
+        <f>stg_dom_trk_cod_sistema_fonte!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D43" s="17" t="str">
+        <f>stg_dom_trk_cod_sistema_fonte!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) TRK - Cod Sist Fonte</v>
+      </c>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="2:5" ht="15">
+      <c r="B44" s="18" t="str">
+        <f>stg_dom_trp_mega_rota!B9</f>
+        <v>[dbo].[stg_dom_trp_mega_rota]</v>
+      </c>
+      <c r="C44" s="14" t="str">
+        <f>stg_dom_trp_mega_rota!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D44" s="17" t="str">
+        <f>stg_dom_trp_mega_rota!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) TRP - Mega Rota</v>
+      </c>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="2:5" ht="15">
+      <c r="B45" s="18" t="str">
+        <f>stg_dom_trp_transportadora!B9</f>
+        <v>[dbo].[stg_dom_trp_transportadora]</v>
+      </c>
+      <c r="C45" s="14" t="str">
+        <f>stg_dom_trp_transportadora!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D45" s="17" t="str">
+        <f>stg_dom_trp_transportadora!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) TRP - Transportadora</v>
+      </c>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="2:5" ht="15">
+      <c r="B46" s="18" t="str">
+        <f>stg_dom_wms_onda!B9</f>
+        <v>[dbo].[stg_dom_wms_onda]</v>
+      </c>
+      <c r="C46" s="14" t="str">
+        <f>stg_dom_wms_onda!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D46" s="17" t="str">
+        <f>stg_dom_wms_onda!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) WMS - Onda</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="2:5" ht="15">
+      <c r="B47" s="18" t="str">
+        <f>stg_dom_wms_planta!B9</f>
+        <v>[dbo].[stg_dom_wms_planta]</v>
+      </c>
+      <c r="C47" s="14" t="str">
+        <f>stg_dom_wms_planta!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D47" s="17" t="str">
+        <f>stg_dom_wms_planta!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) WMS - Planta</v>
+      </c>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="2:5" ht="15">
+      <c r="B48" s="18" t="str">
+        <f>stg_dom_wms_tracking_pedido!B9</f>
+        <v>[dbo].[stg_dom_wms_tracking_pedido]</v>
+      </c>
+      <c r="C48" s="14" t="str">
+        <f>stg_dom_wms_tracking_pedido!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D48" s="17" t="str">
+        <f>stg_dom_wms_tracking_pedido!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) WMS - Tracking Pedido</v>
+      </c>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="2:5" ht="15">
+      <c r="B49" s="18" t="str">
+        <f>stg_dom_wms_trp_ocorrencia!B9</f>
+        <v>[dbo].[stg_dom_wms_trp_ocorrencia]</v>
+      </c>
+      <c r="C49" s="14" t="str">
+        <f>stg_dom_wms_trp_ocorrencia!B8</f>
+        <v>MIS_LN</v>
+      </c>
+      <c r="D49" s="17" t="str">
+        <f>stg_dom_wms_trp_ocorrencia!B10</f>
+        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) WMS - TRP Ocorrência</v>
+      </c>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="2:5" ht="15">
+      <c r="B50" s="18"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="2:5" ht="15">
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="24"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:E15">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B3" location="stg_dom_banco!A1" display="stg_dom_banco!A1"/>
+    <hyperlink ref="B4" location="stg_dom_canal_venda!A1" display="stg_dom_canal_venda!A1"/>
+    <hyperlink ref="B5" location="stg_dom_cap_bco_parceiro!A1" display="stg_dom_cap_bco_parceiro!A1"/>
+    <hyperlink ref="B6" location="stg_dom_cap_preparado_pagto!A1" display="stg_dom_cap_preparado_pagto!A1"/>
+    <hyperlink ref="B7" location="stg_dom_cap_tipo_pagto!A1" display="stg_dom_cap_tipo_pagto!A1"/>
+    <hyperlink ref="B8" location="stg_dom_car_comando!A1" display="stg_dom_car_comando!A1"/>
+    <hyperlink ref="B9" location="stg_dom_centro_custo!A1" display="stg_dom_centro_custo!A1"/>
+    <hyperlink ref="B10" location="stg_dom_companhia!A1" display="stg_dom_companhia!A1"/>
+    <hyperlink ref="B11" location="stg_dom_condicao_pagamento!A1" display="stg_dom_condicao_pagamento!A1"/>
+    <hyperlink ref="B12" location="stg_dom_conta_contabil!A1" display="stg_dom_conta_contabil!A1"/>
+    <hyperlink ref="B13" location="stg_dom_deposito!A1" display="stg_dom_deposito!A1"/>
+    <hyperlink ref="B14" location="stg_dom_des_filial!A1" display="stg_dom_des_filial!A1"/>
+    <hyperlink ref="B15" location="stg_dom_projeto!A1" display="stg_dom_projeto!A1"/>
+    <hyperlink ref="B16" location="stg_dom_des_unidade_negocio!A1" display="stg_dom_des_unidade_negocio!A1"/>
+    <hyperlink ref="B17" location="stg_dom_dev_sistema_fonte!A1" display="stg_dom_dev_sistema_fonte!A1"/>
+    <hyperlink ref="B18" location="stg_dom_est_modalidade!A1" display="stg_dom_est_modalidade!A1"/>
+    <hyperlink ref="B19" location="stg_dom_est_tipo_bloqueio!A1" display="stg_dom_est_tipo_bloqueio!A1"/>
+    <hyperlink ref="B20" location="stg_dom_fat_moeda!A1" display="stg_dom_fat_moeda!A1"/>
+    <hyperlink ref="B21" location="stg_dom_movimento_transacao!A1" display="stg_dom_movimento_transacao!A1"/>
+    <hyperlink ref="B22" location="stg_dom_natureza_lancamento!A1" display="stg_dom_natureza_lancamento!A1"/>
+    <hyperlink ref="B23" location="stg_dom_natureza_operacao!A1" display="stg_dom_natureza_operacao!A1"/>
+    <hyperlink ref="B24" location="stg_dom_natureza_tipo_operacao!A1" display="stg_dom_natureza_tipo_operacao!A1"/>
+    <hyperlink ref="B25" location="stg_dom_nfe_status_rascunho!A1" display="stg_dom_nfe_status_rascunho!A1"/>
+    <hyperlink ref="B26" location="stg_dom_nfr_motivo_devolucao!A1" display="stg_dom_nfr_motivo_devolucao!A1"/>
+    <hyperlink ref="B27" location="stg_dom_orc_tipo!A1" display="stg_dom_orc_tipo!A1"/>
+    <hyperlink ref="B28" location="stg_dom_pec_status_item!A1" display="stg_dom_pec_status_item!A1"/>
+    <hyperlink ref="B29" location="stg_dom_pec_tipo_cadastro!A1" display="stg_dom_pec_tipo_cadastro!A1"/>
+    <hyperlink ref="B30" location="stg_dom_pec_tipo_frete!A1" display="stg_dom_pec_tipo_frete!A1"/>
+    <hyperlink ref="B31" location="stg_dom_pec_tipo_ordem_compra!A1" display="stg_dom_pec_tipo_ordem_compra!A1"/>
+    <hyperlink ref="B32" location="stg_dom_pev_origem!A1" display="stg_dom_pev_origem!A1"/>
+    <hyperlink ref="B33" location="stg_dom_pev_status_pagamento!A1" display="stg_dom_pev_status_pagamento!A1"/>
+    <hyperlink ref="B34" location="stg_dom_pev_tipo_pedido!A1" display="stg_dom_pev_tipo_pedido!A1"/>
+    <hyperlink ref="B35" location="stg_dom_status!A1" display="stg_dom_status!A1"/>
+    <hyperlink ref="B36" location="stg_dom_tipo_documento!A1" display="stg_dom_tipo_documento!A1"/>
+    <hyperlink ref="B37" location="stg_dom_tipo_documento_fiscal!A1" display="stg_dom_tipo_documento_fiscal!A1"/>
+    <hyperlink ref="B38" location="stg_dom_tipo_operacao!A1" display="stg_dom_tipo_operacao!A1"/>
+    <hyperlink ref="B39" location="stg_dom_tipo_transacao!A1" display="stg_dom_tipo_transacao!A1"/>
+    <hyperlink ref="B40" location="stg_dom_des_tipo_transacao!A1" display="stg_dom_des_tipo_transacao!A1"/>
+    <hyperlink ref="B41" location="stg_dom_tipo_transporte!A1" display="stg_dom_tipo_transporte!A1"/>
+    <hyperlink ref="B42" location="stg_dom_transacao!A1" display="stg_dom_transacao!A1"/>
+    <hyperlink ref="B43" location="stg_dom_trk_cod_sistema_fonte!A1" display="stg_dom_trk_cod_sistema_fonte!A1"/>
+    <hyperlink ref="B44" location="stg_dom_trp_mega_rota!A1" display="stg_dom_trp_mega_rota!A1"/>
+    <hyperlink ref="B45" location="stg_dom_trp_transportadora!A1" display="stg_dom_trp_transportadora!A1"/>
+    <hyperlink ref="B46" location="stg_dom_wms_onda!A1" display="stg_dom_wms_onda!A1"/>
+    <hyperlink ref="B47" location="stg_dom_wms_planta!A1" display="stg_dom_wms_planta!A1"/>
+    <hyperlink ref="B48" location="stg_dom_wms_tracking_pedido!A1" display="stg_dom_wms_tracking_pedido!A1"/>
+    <hyperlink ref="B49" location="stg_dom_wms_trp_ocorrencia!A1" display="stg_dom_wms_trp_ocorrencia!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2201,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2209,7 +4835,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2229,38 +4855,54 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
+      <c r="A15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="30" customHeight="1"/>
-    <row r="18" ht="30" customHeight="1"/>
-    <row r="19" ht="30" customHeight="1"/>
-    <row r="20" ht="30" customHeight="1"/>
-    <row r="21" ht="30" customHeight="1"/>
-    <row r="22" ht="30" customHeight="1"/>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2268,7 +4910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2390,7 +5032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2518,120 +5160,6 @@
       <c r="B18" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2693,7 +5221,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2701,7 +5229,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2721,24 +5249,24 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2807,7 +5335,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2815,7 +5343,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2835,24 +5363,24 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2921,7 +5449,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2929,7 +5457,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2949,24 +5477,24 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3035,7 +5563,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3043,7 +5571,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3063,24 +5591,24 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3149,7 +5677,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3157,7 +5685,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3177,24 +5705,24 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3263,7 +5791,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3271,7 +5799,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3291,24 +5819,24 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3377,7 +5905,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3385,7 +5913,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3405,24 +5933,24 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3491,7 +6019,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3499,7 +6027,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3519,24 +6047,24 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3611,7 +6139,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3619,7 +6147,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3639,24 +6167,24 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3675,433 +6203,9 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="B2:E30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="78.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15">
-      <c r="B3" s="12" t="str">
-        <f>stg_dom_banco!B9</f>
-        <v>[dbo].[stg_dom_banco]</v>
-      </c>
-      <c r="C3" s="14" t="str">
-        <f>stg_dom_banco!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D3" s="17" t="str">
-        <f>stg_dom_banco!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Banco</v>
-      </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="2:5" ht="15">
-      <c r="B4" s="18" t="str">
-        <f>stg_dom_canal_venda!B9</f>
-        <v>[dbo].[stg_dom_canal_venda]</v>
-      </c>
-      <c r="C4" s="14" t="str">
-        <f>stg_dom_canal_venda!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D4" s="17" t="str">
-        <f>stg_dom_canal_venda!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Canal Venda</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="2:5" ht="15">
-      <c r="B5" s="18" t="str">
-        <f>stg_dom_cap_bco_parceiro!B9</f>
-        <v>[dbo].[stg_dom_cap_bco_parceiro]</v>
-      </c>
-      <c r="C5" s="14" t="str">
-        <f>stg_dom_cap_bco_parceiro!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D5" s="17" t="str">
-        <f>stg_dom_cap_bco_parceiro!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) CAP - Bco Parceiro</v>
-      </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="2:5" ht="15">
-      <c r="B6" s="18" t="str">
-        <f>stg_dom_cap_preparado_pagto!B9</f>
-        <v>[dbo].[stg_dom_cap_preparado_pagto]</v>
-      </c>
-      <c r="C6" s="14" t="str">
-        <f>stg_dom_cap_preparado_pagto!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D6" s="17" t="str">
-        <f>stg_dom_cap_preparado_pagto!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) CAP - Prep Pgto</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="2:5" ht="15">
-      <c r="B7" s="18" t="str">
-        <f>stg_dom_cap_tipo_pagto!B9</f>
-        <v>[dbo].[stg_dom_cap_tipo_pagto]</v>
-      </c>
-      <c r="C7" s="14" t="str">
-        <f>stg_dom_cap_tipo_pagto!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D7" s="17" t="str">
-        <f>stg_dom_cap_tipo_pagto!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) CAP - Tipo Pgto</v>
-      </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="2:5" ht="15">
-      <c r="B8" s="18" t="str">
-        <f>stg_dom_car_comando!B9</f>
-        <v>[dbo].[stg_dom_car_comando]</v>
-      </c>
-      <c r="C8" s="14" t="str">
-        <f>stg_dom_car_comando!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D8" s="17" t="str">
-        <f>stg_dom_car_comando!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) CAR - Comando</v>
-      </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="2:5" ht="15">
-      <c r="B9" s="18" t="str">
-        <f>stg_dom_centro_custo!B9</f>
-        <v>[dbo].[stg_dom_centro_custo]</v>
-      </c>
-      <c r="C9" s="14" t="str">
-        <f>stg_dom_centro_custo!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D9" s="17" t="str">
-        <f>stg_dom_centro_custo!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Centro de Custo</v>
-      </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="2:5" ht="15">
-      <c r="B10" s="18" t="str">
-        <f>stg_dom_companhia!B9</f>
-        <v>[dbo].[stg_dom_companhia]</v>
-      </c>
-      <c r="C10" s="14" t="str">
-        <f>stg_dom_companhia!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D10" s="17" t="str">
-        <f>stg_dom_companhia!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Companhia</v>
-      </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="2:5" ht="15">
-      <c r="B11" s="18" t="str">
-        <f>stg_dom_condicao_pagamento!B9</f>
-        <v>[dbo].[stg_dom_condicao_pagamento]</v>
-      </c>
-      <c r="C11" s="14" t="str">
-        <f>stg_dom_condicao_pagamento!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D11" s="17" t="str">
-        <f>stg_dom_condicao_pagamento!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Condicao Pagto</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="2:5" ht="15">
-      <c r="B12" s="18" t="str">
-        <f>stg_dom_conta_contabil!B9</f>
-        <v>[dbo].[stg_dom_conta_contabil]</v>
-      </c>
-      <c r="C12" s="14" t="str">
-        <f>stg_dom_conta_contabil!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D12" s="17" t="str">
-        <f>stg_dom_conta_contabil!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Conta Contabil</v>
-      </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="2:5" ht="15">
-      <c r="B13" s="18" t="str">
-        <f>stg_dom_deposito!B9</f>
-        <v>[dbo].[stg_dom_deposito]</v>
-      </c>
-      <c r="C13" s="14" t="str">
-        <f>stg_dom_deposito!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D13" s="17" t="str">
-        <f>stg_dom_deposito!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Deposito</v>
-      </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="2:5" ht="15">
-      <c r="B14" s="18" t="str">
-        <f>stg_dom_des_filial!B9</f>
-        <v>[dbo].[stg_dom_des_filial]</v>
-      </c>
-      <c r="C14" s="14" t="str">
-        <f>stg_dom_des_filial!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D14" s="17" t="str">
-        <f>stg_dom_des_filial!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) DES - Filial LN</v>
-      </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="2:5" ht="15">
-      <c r="B15" s="18" t="str">
-        <f>stg_dom_projeto!B9</f>
-        <v>[dbo].[stg_dom_projeto]</v>
-      </c>
-      <c r="C15" s="14" t="str">
-        <f>stg_dom_projeto!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D15" s="17" t="str">
-        <f>stg_dom_projeto!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) DES - Projeto</v>
-      </c>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="2:5" ht="15">
-      <c r="B16" s="18" t="str">
-        <f>stg_dom_des_unidade_negocio!B9</f>
-        <v>[dbo].[stg_dom_des_unidade_negocio]</v>
-      </c>
-      <c r="C16" s="14" t="str">
-        <f>stg_dom_des_unidade_negocio!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D16" s="17" t="str">
-        <f>stg_dom_des_unidade_negocio!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) DES - Unid Neg LN</v>
-      </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="2:5" ht="15">
-      <c r="B17" s="18" t="str">
-        <f>stg_dom_dev_sistema_fonte!B9</f>
-        <v>[dbo].[stg_dom_dev_sistema_fonte]</v>
-      </c>
-      <c r="C17" s="14" t="str">
-        <f>stg_dom_dev_sistema_fonte!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D17" s="17" t="str">
-        <f>stg_dom_dev_sistema_fonte!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) DEV - Sist Fonte</v>
-      </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="2:5" ht="15">
-      <c r="B18" s="18" t="str">
-        <f>stg_dom_est_modalidade!B9</f>
-        <v>[dbo].[stg_dom_est_modalidade]</v>
-      </c>
-      <c r="C18" s="14" t="str">
-        <f>stg_dom_est_modalidade!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D18" s="17" t="str">
-        <f>stg_dom_est_modalidade!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) EST - Modalidade</v>
-      </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" ht="15">
-      <c r="B19" s="18" t="str">
-        <f>stg_dom_est_tipo_bloqueio!B9</f>
-        <v>[dbo].[stg_dom_est_tipo_bloqueio]</v>
-      </c>
-      <c r="C19" s="14" t="str">
-        <f>stg_dom_est_tipo_bloqueio!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D19" s="17" t="str">
-        <f>stg_dom_est_tipo_bloqueio!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) EST - Tipo Bloqueio</v>
-      </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" ht="15">
-      <c r="B20" s="18" t="str">
-        <f>stg_dom_fat_moeda!B9</f>
-        <v>[dbo].[stg_dom_fat_moeda]</v>
-      </c>
-      <c r="C20" s="14" t="str">
-        <f>stg_dom_fat_moeda!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D20" s="17" t="str">
-        <f>stg_dom_fat_moeda!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) FAT - Moeda</v>
-      </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" ht="15">
-      <c r="B21" s="18" t="str">
-        <f>stg_dom_movimento_transacao!B9</f>
-        <v>[dbo].[stg_dom_movimento_transacao]</v>
-      </c>
-      <c r="C21" s="14" t="str">
-        <f>stg_dom_movimento_transacao!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D21" s="17" t="str">
-        <f>stg_dom_movimento_transacao!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Movto Transacao</v>
-      </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" ht="15">
-      <c r="B22" s="18" t="str">
-        <f>stg_dom_natureza_lancamento!B9</f>
-        <v>[dbo].[stg_dom_natureza_lancamento]</v>
-      </c>
-      <c r="C22" s="14" t="str">
-        <f>stg_dom_natureza_lancamento!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D22" s="17" t="str">
-        <f>stg_dom_natureza_lancamento!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Natureza Lançto</v>
-      </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" ht="15">
-      <c r="B23" s="18" t="str">
-        <f>stg_dom_natureza_operacao!B9</f>
-        <v>[dbo].[stg_dom_natureza_operacao]</v>
-      </c>
-      <c r="C23" s="14" t="str">
-        <f>stg_dom_natureza_operacao!B8</f>
-        <v>MIS_LN</v>
-      </c>
-      <c r="D23" s="17" t="str">
-        <f>stg_dom_natureza_operacao!B10</f>
-        <v>N:\Migracao\Processo de Carga LN\ssis_stage_dom.dtsx\(DFT) Nat Operação</v>
-      </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" ht="15">
-      <c r="B24" s="18"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" ht="15">
-      <c r="B25" s="18"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" ht="15">
-      <c r="B26" s="18"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="2:5" ht="15">
-      <c r="B27" s="18"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="2:5" ht="15">
-      <c r="B28" s="18"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="2:5" ht="15">
-      <c r="B29" s="18"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="2:5" ht="15">
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="24"/>
-    </row>
-  </sheetData>
-  <sortState ref="B3:E15">
-    <sortCondition ref="B3"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="B3" location="stg_dom_banco!A1" display="stg_dom_banco!A1"/>
-    <hyperlink ref="B4" location="stg_dom_canal_venda!A1" display="stg_dom_canal_venda!A1"/>
-    <hyperlink ref="B5" location="stg_dom_cap_bco_parceiro!A1" display="stg_dom_cap_bco_parceiro!A1"/>
-    <hyperlink ref="B6" location="stg_dom_cap_preparado_pagto!A1" display="stg_dom_cap_preparado_pagto!A1"/>
-    <hyperlink ref="B7" location="stg_dom_cap_tipo_pagto!A1" display="stg_dom_cap_tipo_pagto!A1"/>
-    <hyperlink ref="B8" location="stg_dom_car_comando!A1" display="stg_dom_car_comando!A1"/>
-    <hyperlink ref="B9" location="stg_dom_centro_custo!A1" display="stg_dom_centro_custo!A1"/>
-    <hyperlink ref="B10" location="stg_dom_companhia!A1" display="stg_dom_companhia!A1"/>
-    <hyperlink ref="B11" location="stg_dom_condicao_pagamento!A1" display="stg_dom_condicao_pagamento!A1"/>
-    <hyperlink ref="B12" location="stg_dom_conta_contabil!A1" display="stg_dom_conta_contabil!A1"/>
-    <hyperlink ref="B13" location="stg_dom_deposito!A1" display="stg_dom_deposito!A1"/>
-    <hyperlink ref="B14" location="stg_dom_des_filial!A1" display="stg_dom_des_filial!A1"/>
-    <hyperlink ref="B15" location="stg_dom_projeto!A1" display="stg_dom_projeto!A1"/>
-    <hyperlink ref="B16" location="stg_dom_des_unidade_negocio!A1" display="stg_dom_des_unidade_negocio!A1"/>
-    <hyperlink ref="B17" location="stg_dom_dev_sistema_fonte!A1" display="stg_dom_dev_sistema_fonte!A1"/>
-    <hyperlink ref="B18" location="stg_dom_est_modalidade!A1" display="stg_dom_est_modalidade!A1"/>
-    <hyperlink ref="B19" location="stg_dom_est_tipo_bloqueio!A1" display="stg_dom_est_tipo_bloqueio!A1"/>
-    <hyperlink ref="B20" location="stg_dom_fat_moeda!A1" display="stg_dom_fat_moeda!A1"/>
-    <hyperlink ref="B21" location="stg_dom_movimento_transacao!A1" display="stg_dom_movimento_transacao!A1"/>
-    <hyperlink ref="B22" location="stg_dom_natureza_lancamento!A1" display="stg_dom_natureza_lancamento!A1"/>
-    <hyperlink ref="B23" location="stg_dom_natureza_operacao!A1" display="stg_dom_natureza_operacao!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4149,7 +6253,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4157,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4177,6 +6281,120 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
         <v>188</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -4224,6 +6442,824 @@
       <c r="B18" s="7" t="s">
         <v>197</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4285,7 +7321,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4293,7 +7329,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4313,72 +7349,38 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>36</v>
+      <c r="A15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1"/>
-    <row r="22" spans="1:2" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
+    <row r="22" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4386,7 +7388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4439,7 +7441,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4447,7 +7449,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4466,25 +7468,2393 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>49</v>
+      <c r="A14" s="22" t="s">
+        <v>254</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>50</v>
+      <c r="A15" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>52</v>
+        <v>257</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1"/>
+    <row r="22" spans="1:2" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>404</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -4553,7 +9923,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4561,7 +9931,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4581,24 +9951,24 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -4667,7 +10037,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4675,7 +10045,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4695,35 +10065,29 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>67</v>
+      <c r="A15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
@@ -4735,6 +10099,126 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4870,7 +10354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4996,142 +10480,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>